--- a/biology/Zoologie/Eirenis_rechingeri/Eirenis_rechingeri.xlsx
+++ b/biology/Zoologie/Eirenis_rechingeri/Eirenis_rechingeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eirenis rechingeri est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eirenis rechingeri est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Iran[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Iran.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Eiselt indique que le spécimen en sa possession mesure environ 34,5 cm dont 7,5 cm de queue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Eiselt indique que le spécimen en sa possession mesure environ 34,5 cm dont 7,5 cm de queue.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, rechingeri, lui a été donné en l'honneur de Karl Heinz Rechinger (1906–1998), directeur du Museum d'histoire naturelle de Vienne et botaniste autrichien.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Eiselt, 1971 : Eirenis rechingeri n. sp. (Colubridae, Serpentes) aus dem Iran. Annalen des Naturhistorischen Museums in Wien, vol. 75, p. 375-381 (texte intégral).</t>
         </is>
